--- a/medicine/Psychotrope/Old_fashioned/Old_fashioned.xlsx
+++ b/medicine/Psychotrope/Old_fashioned/Old_fashioned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Old fashioned est un cocktail à servir en apéritif, composé d'un sucre imbibé d'amer (type angostura) auquel on ajoute du whisky. Il est traditionnellement servi avec un gros glaçon dans un verre à whisky de type tumbler auquel il a donné son nom : le verre old fashioned.
-C'est un cocktail officiel de l'IBA[1], et l'une des six boissons de base énumérées par David A. Embury (en) dans son livre The Fine Art of Mixing Drinks (en).
+C'est un cocktail officiel de l'IBA, et l'une des six boissons de base énumérées par David A. Embury (en) dans son livre The Fine Art of Mixing Drinks (en).
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus ancienne définition du mot « cocktail » apparaît en 1806 dans l'hebdomadaire Balance and Columbian Repository : « Une liqueur stimulante, composée de n'importe quel alcool fort, de sucre, d'eau et d'amer. »[N 1].
 Le « Whiskey Cocktail » est défini en 1862 par Jerry Thomas comme composé de deux traits d'amer Boker's, quatre traits de sirop de gomme et le contenu d'un verre de vin de whisky ; cette mixture était alors secouée avec de fins glaçons puis filtrée dans un verre de vin rouge avant d'être recouverte d'un zeste de citron[N 2].
-En 2005, un article du C-J place la création de l'Old fashioned aux alentours de 1880 à Louisville, dans un club privé[2]. Son créateur, le colonel James E. Pepper (en), en aurait ensuite apporté la recette au Waldorf-Astoria[3].
-En 2015, le maire de Louisville le reconnait comme le cocktail officiel de la ville[4].
+En 2005, un article du C-J place la création de l'Old fashioned aux alentours de 1880 à Louisville, dans un club privé. Son créateur, le colonel James E. Pepper (en), en aurait ensuite apporté la recette au Waldorf-Astoria.
+En 2015, le maire de Louisville le reconnait comme le cocktail officiel de la ville.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Old fashioned est la boisson favorite du personnage de Don Draper de la série Mad Men[5]. L'apparition dans cette série a coïncidé avec la résurgence de l’intérêt des consommateurs pour cette boisson « oubliée »[6].
-C'est également la boisson préférée de Jacob Palmer (joué par Ryan Gosling) du film Crazy, Stupid, Love[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Old fashioned est la boisson favorite du personnage de Don Draper de la série Mad Men. L'apparition dans cette série a coïncidé avec la résurgence de l’intérêt des consommateurs pour cette boisson « oubliée ».
+C'est également la boisson préférée de Jacob Palmer (joué par Ryan Gosling) du film Crazy, Stupid, Love.
 </t>
         </is>
       </c>
